--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD16D4-80E3-420F-8E7C-DCCBED58AAC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3A40A5-CE93-44C7-BE79-5056D8803A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="830" firstSheet="23" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment6" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="2720">
   <si>
     <t>Benchmark</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8029,409 +8029,340 @@
     <t>Machine  4 :    job 14 [ 0 , 97 ] --&gt;   job 9 [ 97 , 149 ] --&gt;  job 4 [ 149 , 170 ] --&gt;         job 5 [ 170 , 197 ] --&gt;         job 2 [ 197 , 277 ] --&gt;         job 4 [ 277 , 347 ] --&gt;         job 1 [ 347 , 377 ] --&gt;         job 6 [ 377 , 467 ] --&gt;         job 3 [ 467 , 504 ] --&gt;         job 7 [ 504 , 594 ] --&gt;         job 12 [ 594 , 689 ] --&gt;        job 16 [ 689 , 786 ] --&gt;        job 8 [ 786 , 826 ] --&gt;        job 13 [ 826 , 859 ] --&gt;         job 15 [ 859 , 874 ] --&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine  1 :    job 93 [ 0 , 2 ] --&gt;    job 33 [ 2 , 4 ] --&gt;    job 61 [ 4 , 7 ] --&gt;    job 10 [ 7 , 9 ] --&gt;    job 2 [ 9 , 17 ] --&gt;    job 22 [ 17 , 25 ] --&gt;       job 50 [ 25 , 27 ] --&gt;  job 8 [ 27 , 32 ] --&gt;   job 70 [ 32 , 34 ] --&gt;  job 71 [ 34 , 37 ] --&gt;  job 60 [ 37 , 39 ] --&gt;       job 88 [ 39 , 45 ] --&gt;  job 48 [ 45 , 51 ] --&gt;  job 92 [ 51 , 59 ] --&gt;  job 98 [ 59 , 65 ] --&gt;  job 52 [ 65 , 73 ] --&gt;  job 30 [ 73 , 75 ] --&gt;       job 32 [ 75 , 83 ] --&gt;  job 39 [ 83 , 85 ] --&gt;  job 38 [ 85 , 90 ] --&gt;  job 59 [ 90 , 99 ] --&gt;  job 90 [ 99 , 101 ] --&gt;      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 79 [ 101 , 110 ] --&gt;     job 88 [ 110 , 115 ] --&gt;        job 78 [ 115 , 121 ] --&gt;        job 82 [ 121 , 129 ] --&gt;        job 72 [ 129 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 137 ] --&gt;     job 78 [ 137 , 142 ] --&gt;        job 98 [ 142 , 147 ] --&gt;        job 1 [ 147 , 150 ] --&gt;         job 91 [ 150 , 153 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  2 :    job 2 [ 0 , 8 ] --&gt;     job 22 [ 8 , 16 ] --&gt;   job 20 [ 16 , 18 ] --&gt;  job 4 [ 18 , 28 ] --&gt;   job 12 [ 28 , 36 ] --&gt;  job 92 [ 36 , 44 ] --&gt;       job 32 [ 44 , 52 ] --&gt;  job 40 [ 52 , 54 ] --&gt;  job 42 [ 54 , 62 ] --&gt;  job 80 [ 62 , 64 ] --&gt;  job 82 [ 64 , 72 ] --&gt;       job 84 [ 72 , 82 ] --&gt;  job 24 [ 82 , 92 ] --&gt;  job 100 [ 92 , 94 ] --&gt;         job 62 [ 94 , 102 ] --&gt;         job 74 [ 102 , 112 ] </t>
-  </si>
-  <si>
-    <t>--&gt;     job 94 [ 112 , 122 ] --&gt;        job 79 [ 122 , 129 ] --&gt;        job 99 [ 129 , 136 ] --&gt;        job 89 [ 136 , 143 ] --&gt;        job 44 [ 143 , 153 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  3 :    job 26 [ 0 , 3 ] --&gt;    job 3 [ 3 , 8 ] --&gt;     job 43 [ 8 , 13 ] --&gt;   job 7 [ 13 , 15 ] --&gt;   job 9 [ 15 , 23 ] --&gt;   job 9 [ 23 , 24 ] --&gt;        job 63 [ 24 , 29 ] --&gt;  job 17 [ 29 , 31 ] --&gt;  job 19 [ 31 , 39 ] --&gt;  job 27 [ 39 , 41 ] --&gt;  job 19 [ 41 , 42 ] --&gt;       job 27 [ 42 , 46 ] --&gt;  job 10 [ 46 , 49 ] --&gt;  job 53 [ 49 , 54 ] --&gt;  job 29 [ 54 , 62 ] --&gt;  job 29 [ 62 , 63 ] --&gt;  job 33 [ 63 , 68 ] --&gt;       job 37 [ 68 , 70 ] --&gt;  job 99 [ 70 , 78 ] --&gt;  job 97 [ 78 , 80 ] --&gt;  job 73 [ 80 , 85 ] --&gt;  job 28 [ 85 , 93 ] --&gt;  job 47 [ 93 , 95 ] --&gt;       job 93 [ 95 , 100 ] --&gt;         job 87 [ 100 , 102 ] --&gt;        job 59 [ 102 , 103 ] --&gt;        job 69 [ 103 , 104 ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">--&gt;     job 49 [ 104 , 112 ] --&gt;        job 79 [ 112 , 113 ] --&gt;        job 49 [ 113 , 114 ] --&gt;        job 99 [ 114 , 115 ] --&gt;        job 80 [ 115 , 117 ] --&gt;     job 89 [ 117 , 125 ] --&gt;        job 100 [ 125 , 127 ] --&gt;       job 77 [ 127 , 129 ] --&gt;        job 89 [ 129 , 130 ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">--&gt;     job 78 [ 130 , 134 ] --&gt;        job 70 [ 134 , 136 ] --&gt;        job 90 [ 136 , 138 ] --&gt;        job 40 [ 138 , 140 ] --&gt;        job 60 [ 140 , 142 ] --&gt;     job 20 [ 142 , 144 ] --&gt;        job 57 [ 144 , 146 ] --&gt;        job 67 [ 146 , 148 ] --&gt;        job 23 [ 148 , 153 ] </t>
-  </si>
-  <si>
-    <t>--&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  4 :    job 18 [ 0 , 5 ] --&gt;    job 8 [ 5 , 10 ] --&gt;    job 8 [ 10 , 15 ] --&gt;   job 11 [ 15 , 18 ] --&gt;  job 20 [ 18 , 28 ] --&gt;  job 21 [ 28 , 31 ] --&gt;       job 18 [ 31 , 36 ] --&gt;  job 38 [ 36 , 41 ] --&gt;  job 38 [ 41 , 46 ] --&gt;  job 78 [ 46 , 51 ] --&gt;  job 98 [ 51 , 56 ] --&gt;       job 39 [ 56 , 63 ] --&gt;  job 40 [ 63 , 73 ] --&gt;  job 58 [ 73 , 78 ] --&gt;  job 30 [ 78 , 88 ] --&gt;  job 58 [ 88 , 93 ] --&gt;  job 68 [ 93 , 98 ] --&gt;       job 100 [ 98 , 108 ] --&gt;        job 70 [ 108 , 118 ] --&gt;        job 60 [ 118 , 128 ] --&gt;        job 50 [ 128 , 138 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 98 [ 138 , 140 ] --&gt;     job 31 [ 140 , 143 ] --&gt;        job 41 [ 143 , 146 ] --&gt;        job 51 [ 146 , 149 ] --&gt;        job 81 [ 149 </t>
-  </si>
-  <si>
-    <t>, 152 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  5 :    job 36 [ 0 , 2 ] --&gt;    job 10 [ 2 , 4 ] --&gt;    job 26 [ 4 , 7 ] --&gt;    job 6 [ 7 , 9 ] --&gt;     job 9 [ 9 , 13 ] --&gt;    job 20 [ 13 , 15 ] --&gt;       job 70 [ 15 , 17 ] --&gt;  job 16 [ 17 , 19 ] --&gt;  job 50 [ 19 , 21 ] --&gt;  job 19 [ 21 , 25 ] --&gt;  job 29 [ 25 , 29 ] --&gt;       job 66 [ 29 , 31 ] --&gt;  job 17 [ 31 , 33 ] --&gt;  job 60 [ 33 , 35 ] --&gt;  job 12 [ 36 , 44 ] --&gt;  job 39 [ 44 , 48 ] --&gt;  job 46 [ 48 , 50 ] --&gt;       job 40 [ 50 , 52 ] --&gt;  job 52 [ 52 , 59 ] --&gt;  job 76 [ 59 , 61 ] --&gt;  job 56 [ 61 , 63 ] --&gt;  job 56 [ 63 , 66 ] --&gt;  job 99 [ 66 , 70 ] --&gt;       job 38 [ 70 , 73 ] --&gt;  job 59 [ 73 , 77 ] --&gt;  job 90 [ 77 , 79 ] --&gt;  job 76 [ 79 , 82 ] --&gt;  job 100 [ 82 , 84 ] --&gt;      job 86 [ 84 , 86 ] --&gt;  job 39 [ 86 , 88 ] --&gt;  job 49 [ 88 , 92 ] --&gt;  job 79 [ 92 , 96 ] --&gt;  job 72 [ 96 , 103 ] --&gt;         job 66 [ 103 , 106 ] --&gt;     job 89 [ 106 , 110 ] --&gt;        job 100 [ 110 , 118 ] --&gt;       job 96 [ 118 , 120 ] --&gt;        job 96 [ 120 , 123 ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">--&gt;     job 90 [ 123 , 131 ] --&gt;        job 100 [ 131 , 133 ] --&gt;       job 89 [ 133 , 135 ] --&gt;        job 80 [ 135 , 137 ] --&gt;        job 30 [ 137 , 139 ] --&gt;     job 90 [ 139 , 141 ] --&gt;        job 70 [ 141 , 143 ] --&gt;        job 40 [ 143 , 145 ] --&gt;        job 20 [ 145 , 147 ] </t>
-  </si>
-  <si>
-    <t>--&gt;     job 60 [ 147 , 149 ] --&gt;        job 67 [ 149 , 151 ] --&gt;        job 50 [ 151 , 153 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  6 :    job 3 [ 0 , 2 ] --&gt;     job 13 [ 2 , 4 ] --&gt;    job 23 [ 4 , 6 ] --&gt;    job 43 [ 6 , 8 ] --&gt;    job 69 [ 8 , 14 ] --&gt;   job 53 [ 14 , 16 ] --&gt;       job 4 [ 16 , 18 ] --&gt;   job 6 [ 18 , 28 ] --&gt;   job 9 [ 28 , 30 ] --&gt;   job 14 [ 30 , 32 ] --&gt;  job 10 [ 32 , 41 ] --&gt;       job 25 [ 41 , 42 ] --&gt;  job 19 [ 42 , 44 ] --&gt;  job 10 [ 44 , 46 ] --&gt;  job 5 [ 46 , 47 ] --&gt;   job 94 [ 47 , 49 ] --&gt;  job 64 [ 49 , 51 ] --&gt;       job 34 [ 51 , 53 ] --&gt;  job 74 [ 53 , 55 ] --&gt;  job 35 [ 55 , 56 ] --&gt;  job 15 [ 56 , 57 ] --&gt;  job 84 [ 57 , 59 ] --&gt;  job 19 [ 59 , 61 ] --&gt;       job 24 [ 61 , 63 ] --&gt;  job 29 [ 63 , 65 ] --&gt;  job 95 [ 65 , 66 ] --&gt;  job 36 [ 66 , 76 ] --&gt;  job 40 [ 76 , 85 ] --&gt;       job 56 [ 85 , 95 ] --&gt;  job 20 [ 95 , 104 ] --&gt;         job 69 [ 104 , 106 ] --&gt;        job 54 [ 106 , 108 ] --&gt;        job 59 [ 108 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 110 ] --&gt;     job 44 [ 110 , 112 ] --&gt;        job 45 [ 112 , 113 ] --&gt;        job 79 [ 113 , 115 ] --&gt;        job 99 [ 115 , 117 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 55 [ 117 , 118 ] --&gt;     job 30 [ 118 , 120 ] --&gt;        job 70 [ 120 , 129 ] --&gt;        job 60 [ 129 , 138 ] --&gt;        job 49 [ 138 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 140 ] --&gt;     job 50 [ 140 , 149 ] --&gt;        job 50 [ 149 , 151 ] --&gt;        job 65 [ 151 , 152 ] --&gt;        job 85 [ 152 , 153 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  7 :    job 95 [ 0 , 8 ] --&gt;    job 73 [ 8 , 10 ] --&gt;   job 6 [ 10 , 14 ] --&gt;   job 63 [ 14 , 16 ] --&gt;  job 8 [ 16 , 17 ] --&gt;   job 7 [ 17 , 19 ] --&gt;        job 17 [ 19 , 27 ] --&gt;  job 27 [ 27 , 35 ] --&gt;  job 16 [ 35 , 39 ] --&gt;  job 35 [ 39 , 47 ] --&gt;  job 18 [ 47 , 48 ] --&gt;       job 37 [ 48 , 56 ] --&gt;  job 38 [ 56 , 57 ] --&gt;  job 88 [ 57 , 58 ] --&gt;  job 18 [ 58 , 62 ] --&gt;  job 69 [ 62 , 70 ] --&gt;  job 48 [ 70 , 71 ] --&gt;       job 83 [ 71 , 75 ] --&gt;  job 42 [ 75 , 82 ] --&gt;  job 47 [ 82 , 90 ] --&gt;  job 97 [ 90 , 92 ] --&gt;  job 37 [ 92 , 94 ] --&gt;  job 58 [ 94 , 95 ] --&gt;       job 47 [ 95 , 97 ] --&gt;  job 55 [ 97 , 105 ] --&gt;         job 68 [ 105 , 106 ] --&gt;        job 87 [ 106 , 108 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 58 [ 108 , 112 ] --&gt;     job 62 [ 112 , 119 ] --&gt;        job 65 [ 119 , 127 ] --&gt;        job 28 [ 127 , 128 ] --&gt;        job 78 [ 128 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 129 ] --&gt;     job 77 [ 129 , 131 ] --&gt;        job 48 [ 131 , 135 ] --&gt;        job 67 [ 135 , 143 ] --&gt;        job 28 [ 143 , 147 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 68 [ 147 , 151 ] --&gt;     job 57 [ 151 , 153 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  8 :    job 75 [ 0 , 10 ] --&gt;   job 26 [ 10 , 18 ] --&gt;  job 8 [ 18 , 20 ] --&gt;   job 64 [ 20 , 22 ] --&gt;  job 75 [ 22 , 24 ] --&gt;  job 13 [ 24 , 30 ] --&gt;       job 9 [ 30 , 36 ] --&gt;   job 14 [ 36 , 45 ] --&gt;  job 16 [ 45 , 53 ] --&gt;  job 18 [ 53 , 55 ] --&gt;  job 34 [ 55 , 64 ] --&gt;       job 88 [ 64 , 66 ] --&gt;  job 29 [ 66 , 72 ] --&gt;  job 46 [ 72 , 80 ] --&gt;  job 80 [ 80 , 90 ] --&gt;  job 39 [ 90 , 96 ] --&gt;  job 64 [ 96 , 105 ] --&gt;      job 58 [ 105 , 107 ] --&gt;        job 48 [ 107 , 109 ] --&gt;        job 59 [ 110 , 116 ] --&gt;        job 69 [ 116 , 122 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 66 [ 122 , 130 ] --&gt;     job 28 [ 130 , 132 ] --&gt;        job 96 [ 132 , 140 ] --&gt;        job 98 [ 140 , 142 ] --&gt;        job 68 [ 142 </t>
-  </si>
-  <si>
-    <t>, 144 ] --&gt;     job 54 [ 144 , 153 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  9 :    job 7 [ 0 , 10 ] --&gt;    job 75 [ 10 , 12 ] --&gt;  job 5 [ 12 , 14 ] --&gt;   job 10 [ 14 , 25 ] --&gt;  job 25 [ 25 , 27 ] --&gt;  job 28 [ 27 , 33 ] --&gt;       job 88 [ 33 , 39 ] --&gt;  job 48 [ 39 , 45 ] --&gt;  job 15 [ 45 , 47 ] --&gt;  job 80 [ 47 , 50 ] --&gt;  job 35 [ 50 , 52 ] --&gt;       job 83 [ 52 , 55 ] --&gt;  job 95 [ 55 , 57 ] --&gt;  job 97 [ 57 , 67 ] --&gt;  job 18 [ 67 , 69 ] --&gt;  job 80 [ 69 , 80 ] --&gt;  job 68 [ 80 , 86 ] --&gt;       job 87 [ 86 , 96 ] --&gt;  job 8 [ 96 , 98 ] --&gt;   job 38 [ 98 , 100 ] --&gt;         job 45 [ 100 , 102 ] --&gt;        job 85 [ 102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 104 ] --&gt;     job 90 [ 104 , 115 ] --&gt;        job 55 [ 115 , 117 ] --&gt;        job 77 [ 117 , 127 ] --&gt;        job 57 [ 127 , 137 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 48 [ 137 , 139 ] --&gt;     job 58 [ 139 , 141 ] --&gt;        job 65 [ 141 , 143 ] --&gt;        job 78 [ 143 , 145 ] --&gt;        job 88 [ 145 </t>
-  </si>
-  <si>
-    <t>, 147 ] --&gt;     job 28 [ 147 , 149 ] --&gt;        job 98 [ 149 , 151 ] --&gt;        job 68 [ 151 , 153 ] --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine  10 :   job 5 [ 0 , 12 ] --&gt;    job 4 [ 12 , 13 ] --&gt;   job 25 [ 13 , 25 ] --&gt;  job 14 [ 25 , 26 ] --&gt;  job 15 [ 26 , 38 ] --&gt;  job 34 [ 38 , 39 ] --&gt;       job 9 [ 39 , 40 ] --&gt;   job 30 [ 40 , 44 ] --&gt;  job 74 [ 44 , 45 ] --&gt;  job 84 [ 45 , 46 ] --&gt;  job 94 [ 46 , 47 ] --&gt;       job 19 [ 47 , 56 ] --&gt;  job 24 [ 56 , 57 ] --&gt;  job 36 [ 57 , 62 ] --&gt;  job 46 [ 62 , 67 ] --&gt;  job 45 [ 67 , 79 ] --&gt;  job 54 [ 79 , 80 ] --&gt;       job 44 [ 80 , 81 ] --&gt;  job 85 [ 81 , 93 ] --&gt;  job 76 [ 93 , 105 ] --&gt;         job 30 [ 105 , 118 ] --&gt;        job 39 [ 118 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">, 119 ] --&gt;     job 59 [ 119 , 120 ] --&gt;        job 29 [ 120 , 121 ] --&gt;        job 69 [ 122 , 123 ] --&gt;        job 86 [ 123 , 128 ] --&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   job 86 [ 128 , 140 ] --&gt;     job 49 [ 140 , 149 ] --&gt;        job 49 [ 149 , 150 ] --&gt;        job 99 [ 150 , 151 ] --&gt;        job 79 [ 151 </t>
-  </si>
-  <si>
-    <t>, 152 ] --&gt;     job 89 [ 152 , 153 ] --&gt;</t>
-  </si>
-  <si>
     <t>Job 1 :         ( 1 ) ( 3 ) --&gt;</t>
   </si>
   <si>
     <t>Job 2 :         ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 3 :         ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 4 :         ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 5 :         ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 6 :         ( 5 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 6 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 7 :         ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 8 :         ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 9 :         ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 10 :        ( 5 ) ( 2 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 11 :        ( 4 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 12 :        ( 2 ) ( 8 ) --&gt;         ( 5 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 13 :        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 14 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 15 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 16 :        ( 5 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 17 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 18 :        ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 19 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 6 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 20 :        ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 21 :        ( 4 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 22 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 23 :        ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 24 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 25 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 26 :        ( 3 ) ( 3 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 27 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 3 ) ( 4 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 28 :        ( 9 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 29 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 30 :        ( 10 ) ( 4 ) --&gt;        ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 10 ) ( 13 ) --&gt;       ( 6 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 31 :        ( 4 ) ( 3 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 32 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 33 :        ( 1 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 34 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 35 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 36 :        ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 5 ) --&gt;        ( 6 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 37 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 38 :        ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 39 :        ( 5 ) ( 4 ) --&gt;         ( 4 ) ( 7 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 40 :        ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 41 :        ( 4 ) ( 3 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 42 :        ( 2 ) ( 8 ) --&gt;         ( 7 ) ( 7 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 43 :        ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 44 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 45 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 46 :        ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 5 ) --&gt;        ( 8 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 47 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 48 :        ( 9 ) ( 6 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 49 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 10 </t>
-  </si>
-  <si>
-    <t>Job 50 :        ( 5 ) ( 2 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 51 :        ( 4 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 52 :        ( 5 ) ( 7 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 53 :        ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 54 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 55 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 56 :        ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 6 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 57 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 58 :        ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Job 59 :        ( 5 ) ( 4 ) --&gt;         ( 1 ) ( 9 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 60 :        ( 5 ) ( 2 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 61 :        ( 1 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 62 :        ( 2 ) ( 8 ) --&gt;         ( 7 ) ( 7 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 63 :        ( 7 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 64 :        ( 8 ) ( 2 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 65 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 66 :        ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 67 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 68 :        ( 9 ) ( 6 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 69 :        ( 6 ) ( 6 ) --&gt;         ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 70 :        ( 5 ) ( 2 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 71 :        ( 1 ) ( 3 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 72 :        ( 5 ) ( 7 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 73 :        ( 7 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 74 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 75 :        ( 8 ) ( 10 ) --&gt;        ( 9 ) ( 2 ) --&gt;         ( 8 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 76 :        ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 10 ) ( 12 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 77 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 78 :        ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 3 ) ( 4 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 79 :        ( 5 ) ( 4 ) --&gt;         ( 1 ) ( 9 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 7 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 80 :        ( 9 ) ( 3 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 8 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 81 :        ( 4 ) ( 3 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 82 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 83 :        ( 9 ) ( 3 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 84 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 85 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 86 :        ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 5 ) --&gt;        ( 10 ) ( 12 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 87 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 88 :        ( 9 ) ( 6 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job 89 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 7 ) --&gt;         ( 10 </t>
-  </si>
-  <si>
-    <t>Job 90 :        ( 5 ) ( 2 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 91 :        ( 1 ) ( 3 ) --&gt;</t>
   </si>
   <si>
     <t>Job 92 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 93 :        ( 1 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 94 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 95 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
     <t>Job 96 :        ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
   </si>
   <si>
     <t>Job 97 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
   </si>
   <si>
-    <t>Job 98 :        ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 4 ) ( 2 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 99 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 7 ) --&gt;         ( 10 ) ( 1 ) --&gt;</t>
-  </si>
-  <si>
-    <t>Job 100 :       ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+    <t>Machine  1 :    job 13 [ 0 , 2 ] --&gt;    job 51 [ 3 , 6 ] --&gt;    job 8 [ 6 , 12 ] --&gt;    job 2 [ 12 , 20 ] --&gt;   job 20 [ 21 , 23 ] --&gt;  job 10 [ 24 , 26 ] --&gt;  job 63 [ 26 , 28 ] --&gt;  job 44 [ 28 , 33 ] --&gt;  job 21 [ 33 , 36 ] --&gt;  job 18 [ 36 , 42 ] --&gt;  job 28 [ 42 , 48 ] --&gt;  job 70 [ 48 , 50 ] --&gt;  job 1 [ 50 , 53 ] --&gt;   job 28 [ 53 , 58 ] --&gt;  job 12 [ 58 , 66 ] --&gt;  job 22 [ 66 , 74 ] --&gt;  job 11 [ 75 , 78 ] --&gt;  job 48 [ 78 , 84 ] --&gt;  job 50 [ 84 , 86 ] --&gt;  job 52 [ 87 , 95 ] --&gt;  job 88 [ 95 , 101 ] --&gt;         job 71 [ 101 , 104 ] --&gt;        job 33 [ 104 , 106 ] --&gt;        job 38 [ 107 , 112 ] --&gt;        job 42 [ 112 , 120 ] --&gt;        job 62 [ 120 , 128 ] --&gt;        job 60 [ 128 , 130 ] --&gt;        job 78 [ 130 , 136 ] --&gt;        job 18 [ 136 , 141 ] --&gt;        job 92 [ 141 , 149 ] --&gt;        job 98 [ 149 , 154 ] --&gt;        job 91 [ 154 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine  2 :    job 81 [ 0 , 4 ] --&gt;    job 2 [ 4 , 12 ] --&gt;    job 22 [ 12 , 20 ] --&gt;  job 32 [ 20 , 28 ] --&gt;  job 14 [ 28 , 38 ] --&gt;  job 30 [ 38 , 40 ] --&gt;  job 32 [ 40 , 49 ] --&gt;  job 34 [ 49 , 59 ] --&gt;  job 40 [ 59 , 61 ] --&gt;  job 44 [ 61 , 71 ] --&gt;  job 52 [ 71 , 79 ] --&gt;  job 72 [ 79 , 88 ] --&gt;  job 42 [ 88 , 96 ] --&gt;  job 100 </t>
+  </si>
+  <si>
+    <t>[ 96 , 98 ] --&gt;         job 80 [ 98 , 100 ] --&gt;         job 62 [ 100 , 108 ] --&gt;        job 64 [ 108 , 118 ] --&gt;        job 90 [ 118 , 120 ] --&gt;        job 82 [ 120 , 129 ] --&gt;        job 92 [ 129 , 137 ] --&gt;        job 84 [ 137 , 147 ] --&gt;        job 94 [ 147 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Machine  3 :    job 46 [ 0 , 3 ] --&gt;    job 13 [ 3 , 8 ] --&gt;    job 9 [ 8 , 16 ] --&gt;    job 8 [ 16 , 19 ] --&gt;   job 26 [ 19 , 22 ] --&gt;  job 17 [ 22 , 24 ] --&gt;  job 7 [ 24 , 26 ] --&gt;   job 19 [ 26 , 27 ] --&gt;  job 27 [ 27 , 29 ] --&gt;  job 23 [ 29 , 34 ] --&gt;  job 9 [ 34 , 35 ] --&gt;   job 29 [ 35 , 43 ] --&gt;  job 29 [ 43 , 44 ] --&gt;  job 10 [ 44 , 46 ] --&gt;  job 49 [ 46 , 54 ] --&gt;  job 39 [ 54 , 62 ] --&gt;  job 39 [ 62 , 63 ] --&gt;  job 68 [ 63 , 71 ] --&gt;  job 49 [ 71 , 72 ] --&gt;  job 79 [ 72 , 80 ] --&gt;  job 79 [ 80 , 81 ] --&gt;  job 76 [ 81 , 84 ] --&gt;  job 57 [ 84 , 86 ] --&gt;  job 77 [ 86 , 88 ] --&gt;  job 59 [ 88 , 96 ] --&gt;  job 59 [ 96 , 97 ] --&gt;  job 97 [ 97 , 99 ] --&gt;  job 87 [ 99 , 101 ] --&gt;         job 88 [ 101 , 104 ] --&gt;        job 20 [ 104 , 106 ] --&gt;        job 50 [ 106 , 108 ] --&gt;        job 99 [ 108 , 116 ] --&gt;        job 99 [ 116 , 117 ] --&gt;        job 89 [ 117 , 125 ] --&gt;        job 89 [ 125 , 126 ] --&gt;        job 100 [ 126 , 128 ] --&gt;       job 66 [ 128 , 131 ] --&gt;        job 73 [ 131 , 136 ] --&gt;        job 80 [ 136 , 138 ] --&gt;        job 69 [ 138 , 146 ] --&gt;        job 69 [ 146 , 147 ] --&gt;        job 10 [ 147 , 150 ] --&gt;        job 60 [ 150 , 152 ] --&gt;        job 47 [ 152 , 154 ] --&gt;        job 70 [ 154 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Machine  4 :    job 44 [ 0 , 1 ] --&gt;    job 8 [ 1 , 6 ] --&gt;     job 58 [ 6 , 11 ] --&gt;   job 58 [ 11 , 16 ] --&gt;  job 61 [ 16 , 19 ] --&gt;  job 19 [ 19 , 26 ] --&gt;  job 10 [ 26 , 36 ] --&gt;  job 28 [ 36 , 41 ] --&gt;  job 38 [ 41 , 46 ] --&gt;  job 18 [ 46 , 48 ] --&gt;  job 28 [ 48 , 50 ] --&gt;  job 31 [ 50 , 53 ] --&gt;  job 78 [ 53 , 58 ] --&gt;  job 38 [ 58 , 63 ] --&gt;  job 54 [ 63 , 64 ] --&gt;  job 41 [ 64 , 67 ] --&gt;  job 20 [ 67 , 77 ] --&gt;  job 39 [ 77 , 78 ] --&gt;  job 84 [ 78 , 79 ] --&gt;  job 88 [ 79 , 84 ] --&gt;  job 48 [ 84 , 86 ] --&gt;  job 19 [ 86 , 87 ] --&gt;  job 98 [ 87 , 92 ] --&gt;  job 49 [ 92 , 93 ] --&gt;  job 70 [ 94 , 104 ] --&gt;         job 98 [ 104 , 109 ] --&gt;        job 54 [ 109 , 120 ] --&gt;        job 59 [ 120 , 121 ] --&gt;        job 90 [ 121 , 131 ] --&gt;        job 60 [ 131 , 141 ] --&gt;        job 88 [ 141 , 147 ] --&gt;        job 48 [ 147 , 153 ] --&gt;        job 89 [ 153 , 154 ] --&gt;        job 99 [ 154 , 155 ] --&gt;        job 79 [ 155 , 156 ] --&gt;        job 69 [ 156 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine  5 :    job 69 [ 0 , 4 ] --&gt;    job 46 [ 4 , 7 ] --&gt;    job 96 [ 7 , 9 ] --&gt;    job 12 [ 9 , 16 ] --&gt;   job 96 [ 16 , 19 ] --&gt;  job 79 [ 19 , 23 ] --&gt;  job 16 [ 23 , 25 ] --&gt;  job 26 [ 25 , 28 ] --&gt;  job 29 [ 28 , 32 ] --&gt;  job 49 [ 32 , 36 ] --&gt;  job 10 [ 36 , 44 ] --&gt;  job 36 [ 44 , 46 ] --&gt;  job 9 [ 46 , 48 ] --&gt;   job 6 [ </t>
+  </si>
+  <si>
+    <t>48 , 50 ] --&gt;   job 86 [ 50 , 52 ] --&gt;  job 56 [ 52 , 54 ] --&gt;  job 72 [ 55 , 62 ] --&gt;  job 77 [ 62 , 72 ] --&gt;  job 40 [ 72 , 80 ] --&gt;  job 6 [ 80 , 83 ] --&gt;   job 79 [ 83 , 85 ] --&gt;  job 27 [ 85 , 87 ] --&gt;  job 89 [ 87 , 91 ] --&gt;  job 100 [ 91 , 93 ] --&gt;         job 82 [ 93 , 100 ] --&gt;         job 76 [ 100 , 103 ] --&gt;        job 87 [ 103 , 105 ] --&gt;        job 56 [ 105 , 108 ] --&gt;        job 50 [ 108 , 110 ] --&gt;        job 90 [ 110 , 112 ] --&gt;        job 100 [ 112 , 120 ] --&gt;       job 20 [ 120 , 122 ] --&gt;        job 80 [ 122 , 130 ] --&gt;        job 99 [ 130 , 132 ] --&gt;        job 57 [ 132 , 134 ] --&gt;        job 30 [ 134 , 136 ] --&gt;        job 77 [ 136 , 138 ] --&gt;        job 100 [ 138 , 140 ] --&gt;       job 80 [ 140 , 142 ] --&gt;        job 60 [ 142 , 150 ] --&gt;        job 90 [ 150 , 152 ] --&gt;        job 60 [ 152 , 154 ] --&gt;        job 40 [ 154 , 156 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Machine  6 :    job 3 [ 0 , 2 ] --&gt;     job 9 [ 2 , 8 ] --&gt;     job 24 [ 8 , 10 ] --&gt;   job 5 [ 10 , 11 ] --&gt;   job 19 [ 11 , 17 ] --&gt;  job 20 [ 17 , 21 ] --&gt;  job 93 [ 21 , 23 ] --&gt;  job 64 [ 23 , 25 ] --&gt;  job 14 [ 25 , 27 ] --&gt;  job 19 [ 27 , 29 ] --&gt;  job 95 [ 29 , 30 ] --&gt;  job 16 [ 30 , 40 ] --&gt;  job 24 [ 40 , 42 ] --&gt;  job 34 [ 42 , 44 ] --&gt;  job 29 [ 44 , 46 ] --&gt;  job 34 [ 46 , 48 ] --&gt;  job 39 [ 48 , 54 ] --&gt;  job 30 [ 54 , 63 ] --&gt;  job 30 [ 63 , 65 ] --&gt;  job 35 [ 65 , 66 ] --&gt;  job 37 [ 66 , 69 ] --&gt;  job 39 [ 69 , 71 ] --&gt;  job 48 [ 71 , 78 ] --&gt;  job 49 [ 78 , 80 ] --&gt;  job 40 [ 80 , 82 ] --&gt;  job 59 [ 82 , 88 ] --&gt;  job 99 [ 88 , 94 ] --&gt;  job 25 [ 94 , 95 ] --&gt;  job 54 [ 95 , 97 ] --&gt;  job 50 [ 97 , 106 ] --&gt;         job 64 [ 106 , 108 ] --&gt;        job 59 [ 108 , 110 ] --&gt;        job 74 [ 110 , 112 ] --&gt;        job 70 [ 112 , 121 ] --&gt;        job 70 [ 121 , 123 ] --&gt;        job 4 [ 123 , 125 ] --&gt;         job 83 [ 125 , 127 ] --&gt;        job 84 [ 127 , 129 ] --&gt;        job 89 [ 129 , 131 ] --&gt;        job 90 [ 131 , 140 ] --&gt;        job 53 [ 140 , 142 ] --&gt;        job 94 [ 142 , 144 ] --&gt;        job 90 [ 144 , 146 ] --&gt;        job 75 [ 146 , 147 ] --&gt;        job 15 [ 147 , 148 ] --&gt;        job 69 [ 148 , 150 ] --&gt;        job 67 [ 150 , 153 ] --&gt;        job 45 [ 153 , 154 ] --&gt;        job 55 [ 154 , 155 ] --&gt;        job 65 [ 155 , 156 ] --&gt;        job 85 [ 156 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine  7 :    job 5 [ 0 , 8 ] --&gt;     job 3 [ 8 , 12 ] --&gt;    job 17 [ 12 , 20 ] --&gt;  job 58 [ 20 , 21 ] --&gt;  job 8 [ 21 , 25 ] --&gt;   job 17 [ 25 , 27 ] --&gt;  job 23 [ 27 , 29 ] --&gt;  job 25 [ 29 , 37 ] --&gt;  job 37 [ 37 , 45 ] --&gt;  job 43 [ 45 , 47 ] --&gt;  job 45 [ 47 , 55 ] --&gt;  job 58 [ 55 , 59 ] --&gt;  job 67 [ 59 , 67 ] --&gt;  job 38 [ 67 , 68 ] --&gt;  job 7 [ 68 , 70 ] --&gt;   job 43 [ 70 , 74 ] --&gt;  job 57 [ 74 , 82 ] --&gt;  job 68 [ 82 , 83 ] --&gt;  job 65 [ 83 , 91 ] --&gt;  job 87 [ 91 , 99 ] --&gt;  job 68 [ 99 , 103 ] --&gt;         job 63 [ 103 , 107 ] --&gt;        job 93 [ 107 , 111 ] --&gt;        job 85 [ 111 , 119 ] --&gt;        job 98 [ 119 , 120 ] --&gt;        job 75 [ 120 , 128 ] --&gt;        job 83 [ 128 , 132 ] --&gt;        job 66 [ 132 , 136 ] --&gt;        job 78 [ 136 , 137 ] --&gt;        job 97 [ 137 , 139 ] --&gt;        job 33 [ 139 , 143 ] --&gt;        job 78 [ 143 , 147 ] --&gt;        job 37 [ 147 , 149 ] --&gt;        job 53 [ 149 , 153 ] --&gt;        job 67 [ 153 , 155 ] --&gt;        job 47 [ 155 , 157 ] --&gt;        </t>
+  </si>
+  <si>
+    <t>Machine  8 :    job 95 [ 0 , 10 ] --&gt;   job 46 [ 10 , 18 ] --&gt;  job 8 [ 19 , 21 ] --&gt;   job 96 [ 21 , 29 ] --&gt;  job 26 [ 29 , 37 ] --&gt;  job 80 [ 37 , 42 ] --&gt;  job 24 [ 42 , 51 ] --&gt;  job 28 [ 51 , 53 ] --&gt;  job 58 [ 53 , 55 ] --&gt;  job 9 [ 55 , 61 ] --&gt;   job 36 [ 61 , 69 ] --&gt;  job 38 [ 69 , 71 ] --&gt;  job 39 [ 71 , 77 ] --&gt;  job 19 [ 77 , 83 ] --&gt;  job 68 [ 84 , 86 ] --&gt;  job 48 [ 86 , 88 ] --&gt;  job 6 [ 88 , 96 ] --&gt;   job 86 [ 96 , 104 ] --&gt;         job 76 [ 104 , 112 ] --&gt;        job 74 [ 112 , 121 ] --&gt;        job 88 [ 121 , 123 ] --&gt;        job 98 [ 123 , 125 ] --&gt;        job 4 [ 125 , 134 ] --&gt;         job 89 [ 134 , 140 ] --&gt;        job 78 [ 140 , 142 ] --&gt;        job 66 [ 142 , 150 ] --&gt;        job 69 [ 150 , 156 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Machine  9 :    job 70 [ 0 , 3 ] --&gt;    job 73 [ 3 , 6 ] --&gt;    job 5 [ 8 , 10 ] --&gt;    job 18 [ 10 , 16 ] --&gt;  job 27 [ 16 , 26 ] --&gt;  job 95 [ 26 , 28 ] --&gt;  job 97 [ 28 , 38 ] --&gt;  job 8 [ 38 , 40 ] --&gt;   job 30 [ 40 , 51 ] --&gt;  job 35 [ 51 , 53 ] --&gt;  job 68 [ 53 , 59 ] --&gt;  job 25 [ 59 , 61 ] --&gt;  job 40 [ 61 , 72 ] --&gt;  job 86 [ 72 , 77 ] --&gt;  job 55 [ 77 , 79 ] --&gt;  job 18 [ 79 , 84 ] --&gt;  job 28 [ 84 , 86 ] --&gt;  job 50 [ 86 , 97 ] --&gt;  job 65 [ 97 , 99 ] --&gt;  job 100 [ 99 , 110 ] --&gt;        job 80 [ 110 , 121 ] --&gt;        job 47 [ 121 , 131 ] --&gt;        job 38 [ 131 , 133 ] --&gt;        job 45 [ 134 , 136 ] --&gt;        job 15 [ 136 , 138 ] --&gt;        job 58 [ 138 , 140 ] --&gt;        job 18 [ 141 , 143 ] --&gt;        job 75 [ 143 , 145 ] --&gt;        job 68 [ 145 , 147 ] --&gt;        job 78 [ 147 , 149 ] --&gt;        job 88 [ 149 , 151 ] --&gt;        job 85 [ 151 , 153 ] --&gt;        job 48 [ 153 , 155 ] --&gt;        job 98 [ 155 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Machine  10 :   job 40 [ 0 , 4 ] --&gt;    job 4 [ 4 , 5 ] --&gt;     job 7 [ 5 , 20 ] --&gt;    job 10 [ 20 , 24 ] --&gt;  job 14 [ 24 , 25 ] --&gt;  job 16 [ 25 , 30 ] --&gt;  job 30 [ 30 , 34 ] --&gt;  job 35 [ 34 , 46 ] --&gt;  job 74 [ 46 , 47 ] --&gt;  job 36 [ 47 , 52 ] --&gt;  job 94 [ 52 , 53 ] --&gt;  job 29 [ 53 , 62 ] --&gt;  job 55 [ 62 , 74 ] --&gt;  job 50 [ 74 , 78 ] --&gt;  job 9 [ 78 , 79 ] --&gt;   job 29 [ 79 , 80 ] --&gt;  job 49 [ 80 , 89 ] --&gt;  job 20 [ 89 , 102 ] --&gt;         job 79 [ 102 , 111 ] --&gt;        job 59 [ 111 , 120 ] --&gt;        job 60 [ 120 , 124 ] --&gt;        job 15 [ 124 , 136 ] --&gt;        job 99 [ 136 , 145 ] --&gt;        job 56 [ 145 , 157 ] --&gt;</t>
+  </si>
+  <si>
+    <t>Job 3 :         ( 6 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 4 :         ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 5 :         ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 6 :         ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 7 :         ( 10 ) ( 15 ) --&gt;       ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 8 :         ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 3 ) ( 3 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 9 :         ( 6 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 5 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 10 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 10 :        ( 10 ) ( 4 ) --&gt;        ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 3 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 11 :        ( 1 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 12 :        ( 5 ) ( 7 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 13 :        ( 1 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 14 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 16 :        ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 5 ) --&gt;        ( 6 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 17 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 18 :        ( 9 ) ( 6 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 4 ) ( 2 ) --&gt;         ( 9 ) ( 5 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 19 :        ( 6 ) ( 6 ) --&gt;         ( 4 ) ( 7 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 20 :        ( 6 ) ( 4 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 10 ) ( 13 ) --&gt;       ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 21 :        ( 1 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 23 :        ( 7 ) ( 2 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 24 :        ( 6 ) ( 2 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 25 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 27 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 28 :        ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 4 ) ( 2 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 29 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 10 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 30 :        ( 10 ) ( 4 ) --&gt;        ( 2 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 32 :        ( 2 ) ( 8 ) --&gt;         ( 2 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 33 :        ( 1 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 34 :        ( 6 ) ( 2 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 35 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 36 :        ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 5 ) --&gt;        ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 37 :        ( 7 ) ( 8 ) --&gt;         ( 6 ) ( 3 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 38 :        ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 39 :        ( 6 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 40 :        ( 10 ) ( 4 ) --&gt;        ( 2 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 42 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 43 :        ( 7 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 44 :        ( 4 ) ( 1 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 45 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 46 :        ( 3 ) ( 3 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 47 :        ( 9 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 48 :        ( 6 ) ( 7 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 4 ) ( 2 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 4 ) ( 6 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 49 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 50 :        ( 10 ) ( 4 ) --&gt;        ( 1 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 51 :        ( 1 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 52 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 53 :        ( 6 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 54 :        ( 4 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 4 ) ( 11 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 55 :        ( 10 ) ( 12 ) --&gt;       ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 56 :        ( 5 ) ( 2 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 10 ) ( 12 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 57 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job 59 :        ( 6 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 4 ) ( 1 ) --&gt; </t>
+  </si>
+  <si>
+    <t>Job 60 :        ( 10 ) ( 4 ) --&gt;        ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 61 :        ( 4 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 62 :        ( 2 ) ( 8 ) --&gt;         ( 1 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 63 :        ( 1 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 64 :        ( 6 ) ( 2 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 66 :        ( 3 ) ( 3 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 67 :        ( 7 ) ( 8 ) --&gt;         ( 6 ) ( 3 ) --&gt;         ( 7 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 68 :        ( 9 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 69 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 70 :        ( 9 ) ( 3 ) --&gt;         ( 1 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 3 ) ( 3 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 72 :        ( 5 ) ( 7 ) --&gt;         ( 2 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 73 :        ( 9 ) ( 3 ) --&gt;         ( 3 ) ( 5 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 74 :        ( 10 ) ( 1 ) --&gt;        ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 75 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 76 :        ( 3 ) ( 3 ) --&gt;         ( 5 ) ( 3 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 77 :        ( 5 ) ( 10 ) --&gt;        ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 78 :        ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 79 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 80 :        ( 8 ) ( 5 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 81 :        ( 2 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 82 :        ( 5 ) ( 7 ) --&gt;         ( 2 ) ( 9 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 83 :        ( 6 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 84 :        ( 4 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 2 ) ( 10 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 85 :        ( 7 ) ( 8 ) --&gt;         ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 86 :        ( 5 ) ( 2 ) --&gt;         ( 9 ) ( 5 ) --&gt;         ( 8 ) ( 8 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 87 :        ( 7 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 88 :        ( 4 ) ( 5 ) --&gt;         ( 1 ) ( 6 ) --&gt;         ( 3 ) ( 3 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 4 ) ( 6 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 89 :        ( 5 ) ( 4 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 8 ) ( 6 ) --&gt;         ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 90 :        ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 4 ) ( 10 ) --&gt;        ( 6 ) ( 9 ) --&gt;         ( 6 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 93 :        ( 6 ) ( 2 ) --&gt;         ( 7 ) ( 4 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 95 :        ( 8 ) ( 10 ) --&gt;        ( 9 ) ( 2 ) --&gt;         ( 6 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 98 :        ( 4 ) ( 5 ) --&gt;         ( 4 ) ( 5 ) --&gt;         ( 7 ) ( 1 ) --&gt;         ( 8 ) ( 2 ) --&gt;         ( 1 ) ( 5 ) --&gt;         ( 9 ) ( 2 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 99 :        ( 6 ) ( 6 ) --&gt;         ( 3 ) ( 8 ) --&gt;         ( 3 ) ( 1 ) --&gt;         ( 5 ) ( 2 ) --&gt;         ( 10 ) ( 9 ) --&gt;        ( 4 ) ( 1 ) --&gt;</t>
+  </si>
+  <si>
+    <t>Job 100 :       ( 5 ) ( 2 ) --&gt;         ( 2 ) ( 2 ) --&gt;         ( 9 ) ( 11 ) --&gt;        ( 5 ) ( 8 ) --&gt;         ( 3 ) ( 2 ) --&gt;         ( 5 ) ( 2 ) --&gt;</t>
   </si>
 </sst>
 </file>
@@ -8982,7 +8913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -9476,11 +9407,11 @@
         <v>65</v>
       </c>
       <c r="K13" s="24">
-        <f t="shared" ref="K4:K52" si="0">(E13-H13)/H13</f>
+        <f t="shared" ref="K13:K52" si="0">(E13-H13)/H13</f>
         <v>1.2048192771084338E-2</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" ref="L4:L52" si="1">(F13-I13)/I13</f>
+        <f t="shared" ref="L13:L52" si="1">(F13-I13)/I13</f>
         <v>1.3755980861244087E-2</v>
       </c>
       <c r="M13" s="24"/>
@@ -25610,10 +25541,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A4BB9-12A8-4EA2-896E-107087F6A360}">
-  <dimension ref="A1:A156"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="P145" sqref="P145"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BV38" sqref="BV38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25625,712 +25556,562 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2609</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2610</v>
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2625</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2613</v>
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2627</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2614</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2617</v>
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2630</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2620</v>
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2632</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2623</v>
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2634</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2624</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2625</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2626</v>
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2637</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2628</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2629</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2630</v>
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2631</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2632</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2633</v>
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2646</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2634</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2635</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2636</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2637</v>
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2650</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2638</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2639</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2640</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2641</v>
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2654</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2642</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2643</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2644</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2645</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2646</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2647</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2648</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2649</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2650</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2651</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2652</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2653</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2654</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2655</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2656</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2657</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2658</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2659</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2660</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2661</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2662</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2663</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2664</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2665</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2666</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2667</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2668</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2669</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2670</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2671</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2651</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2672</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2673</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2674</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2675</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2676</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>2677</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2678</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2679</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2680</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>2681</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>2651</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2682</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>2683</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2684</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2685</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2686</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2687</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2688</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2689</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2690</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2691</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2651</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>2693</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2694</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2695</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>2696</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>2697</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2698</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2699</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2700</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>2701</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2651</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>2703</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>2704</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2705</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>2706</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>2707</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>2708</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2709</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2710</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2711</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2651</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
         <v>2719</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>2730</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>2735</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>2742</v>
       </c>
     </row>
   </sheetData>
